--- a/src/P07_af_all/T07_ml_auto_optuna_5052/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T07_ml_auto_optuna_5052/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4774940945922301</v>
+        <v>0.6608528026922107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9183353234875711</v>
+        <v>0.998221142919538</v>
       </c>
       <c r="G2" t="n">
-        <v>1.583932826941729</v>
+        <v>1.817353745099356</v>
       </c>
       <c r="H2" t="n">
-        <v>1.779777027951602</v>
+        <v>1.839806268295668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5225059054077698</v>
+        <v>0.339147197307789</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2816180527565754</v>
+        <v>0.2191261404312081</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6682056893119991</v>
+        <v>0.8239690449511173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.861334418073969</v>
+        <v>0.851948719962342</v>
       </c>
       <c r="G3" t="n">
-        <v>1.310568614286855</v>
+        <v>1.355986350371055</v>
       </c>
       <c r="H3" t="n">
-        <v>5.843528755608623</v>
+        <v>6.196610274392193</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3317943106880007</v>
+        <v>0.1760309550488826</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.05037605181143934</v>
+        <v>-0.03893042474822539</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3469262956356258</v>
+        <v>0.5797618602963682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4540596014757052</v>
+        <v>0.5859327503364729</v>
       </c>
       <c r="G4" t="n">
-        <v>1.161146676842485</v>
+        <v>1.391340435960972</v>
       </c>
       <c r="H4" t="n">
-        <v>1.202345893781777</v>
+        <v>1.289844348424086</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6530737043643744</v>
+        <v>0.420238139703632</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4676862409254658</v>
+        <v>0.3130856304264787</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4975420265132851</v>
+        <v>0.6881945693132322</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7445764476790818</v>
+        <v>0.812034204406118</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35188270602369</v>
+        <v>1.521560177143794</v>
       </c>
       <c r="H5" t="n">
-        <v>2.941883892447333</v>
+        <v>3.108753630370648</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5024579734867146</v>
+        <v>0.3118054306867676</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2329760806235337</v>
+        <v>0.1644271153698199</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5700669081203121</v>
+        <v>0.6880296848288866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6238463097905804</v>
+        <v>0.6981935485843347</v>
       </c>
       <c r="G6" t="n">
-        <v>1.670300191032956</v>
+        <v>1.734164226075853</v>
       </c>
       <c r="H6" t="n">
-        <v>1.569317244632115</v>
+        <v>2.068919108708779</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4299330918796879</v>
+        <v>0.3119703151711134</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2850002870715947</v>
+        <v>0.1997897896136575</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7649124679099717</v>
+        <v>0.8539315437163016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9054960194828642</v>
+        <v>0.8791046725364962</v>
       </c>
       <c r="G7" t="n">
-        <v>1.576494407912074</v>
+        <v>1.572406372462169</v>
       </c>
       <c r="H7" t="n">
-        <v>1.536661174908047</v>
+        <v>1.24958654664644</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2350875320900286</v>
+        <v>0.1460684562836987</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01222323631291689</v>
+        <v>0.01727875380291621</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4915739313612691</v>
+        <v>0.613255508381668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7195918812698193</v>
+        <v>0.7890807684017829</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61199978404117</v>
+        <v>1.943454742289674</v>
       </c>
       <c r="H8" t="n">
-        <v>1.187254064957117</v>
+        <v>1.52896683279646</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5084260686387306</v>
+        <v>0.3867444916183318</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3481162451552791</v>
+        <v>0.2851657341188987</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6088511024638507</v>
+        <v>0.7184055789756187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7496447368477549</v>
+        <v>0.7887929965075378</v>
       </c>
       <c r="G9" t="n">
-        <v>1.619598127662066</v>
+        <v>1.750008446942563</v>
       </c>
       <c r="H9" t="n">
-        <v>1.431077494832426</v>
+        <v>1.615824162717226</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3911488975361492</v>
+        <v>0.2815944210243811</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2069644319713185</v>
+        <v>0.1674114258451575</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4170174372706429</v>
+        <v>0.6724487489628428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.940245590179644</v>
+        <v>0.9146882445022855</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9031737730220344</v>
+        <v>1.252791170094226</v>
       </c>
       <c r="H10" t="n">
-        <v>2.098022177338041</v>
+        <v>1.763266798523676</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5829825627293568</v>
+        <v>0.3275512510371568</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1644392773316457</v>
+        <v>0.1871511245837861</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.648228290063439</v>
+        <v>0.8910378178992235</v>
       </c>
       <c r="F11" t="n">
-        <v>1.054709426791432</v>
+        <v>0.8180611990401441</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173452077813242</v>
+        <v>1.546809548930097</v>
       </c>
       <c r="H11" t="n">
-        <v>4.13407277510079</v>
+        <v>2.235153517303909</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3517717099365607</v>
+        <v>0.108962182100776</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.1445058895833173</v>
+        <v>0.1122902322118117</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3404338192706737</v>
+        <v>0.6380017988993518</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4197025876898324</v>
+        <v>0.4562463402339754</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9736785821798297</v>
+        <v>1.475686813618321</v>
       </c>
       <c r="H12" t="n">
-        <v>1.03959608045517</v>
+        <v>1.160946975040661</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6595661807293262</v>
+        <v>0.3619982011006478</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4284662056981426</v>
+        <v>0.3787024201934002</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4685598488682519</v>
+        <v>0.7338294552538063</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8048858682203028</v>
+        <v>0.7296652612588018</v>
       </c>
       <c r="G13" t="n">
-        <v>1.016768144338369</v>
+        <v>1.425095844214215</v>
       </c>
       <c r="H13" t="n">
-        <v>2.423897010964666</v>
+        <v>1.719789096956082</v>
       </c>
       <c r="I13" t="n">
-        <v>0.531440151131748</v>
+        <v>0.2661705447461938</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1494665311488237</v>
+        <v>0.2260479256629992</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5270535082803229</v>
+        <v>0.7313083528954898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7963263779847324</v>
+        <v>0.8222892930692202</v>
       </c>
       <c r="G14" t="n">
-        <v>1.26446635102653</v>
+        <v>1.296876742583583</v>
       </c>
       <c r="H14" t="n">
-        <v>4.532831385731479</v>
+        <v>1.598526047497427</v>
       </c>
       <c r="I14" t="n">
-        <v>0.472946491719677</v>
+        <v>0.2686916471045101</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2958973428288412</v>
+        <v>0.2729412308573155</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +962,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7565877333802764</v>
+        <v>0.8951910234733225</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9260209108402139</v>
+        <v>0.9339192963502367</v>
       </c>
       <c r="G15" t="n">
-        <v>3.309339688901746</v>
+        <v>1.970799891958803</v>
       </c>
       <c r="H15" t="n">
-        <v>1.208680678663433</v>
+        <v>1.080839382033671</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2434122666197231</v>
+        <v>0.104808976526677</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07099033601229976</v>
+        <v>0.06306645828684543</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.394328387523791</v>
+        <v>0.5864361607284949</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5263214765061442</v>
+        <v>0.639266778460405</v>
       </c>
       <c r="G16" t="n">
-        <v>1.298136072361834</v>
+        <v>1.45076484611143</v>
       </c>
       <c r="H16" t="n">
-        <v>1.224298424935579</v>
+        <v>1.263964282536068</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6056716124762094</v>
+        <v>0.4135638392715055</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3766715631177028</v>
+        <v>0.2429091732800412</v>
       </c>
     </row>
     <row r="17">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5593232097281301</v>
+        <v>0.7376451790324358</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7495562551103636</v>
+        <v>0.7984917892932873</v>
       </c>
       <c r="G17" t="n">
-        <v>1.957314037430036</v>
+        <v>1.572813826884605</v>
       </c>
       <c r="H17" t="n">
-        <v>2.321936829776831</v>
+        <v>1.314443237355722</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4406767902718694</v>
+        <v>0.2623548209675637</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2478530806529477</v>
+        <v>0.192972287474734</v>
       </c>
     </row>
     <row r="18">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3106689316490121</v>
+        <v>0.5988874065239718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9525395691720946</v>
+        <v>0.9871657809297536</v>
       </c>
       <c r="G18" t="n">
-        <v>20.95050077048761</v>
+        <v>21.38190071256613</v>
       </c>
       <c r="H18" t="n">
-        <v>1.492126158567322</v>
+        <v>1.378757302210169</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6893310683509877</v>
+        <v>0.4011125934760277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1832094332574584</v>
+        <v>0.1535178970304989</v>
       </c>
     </row>
     <row r="19">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5168488784652236</v>
+        <v>0.7776403343034705</v>
       </c>
       <c r="F19" t="n">
-        <v>1.035006719487476</v>
+        <v>0.899587314173271</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7785437623786057</v>
+        <v>1.615053432447517</v>
       </c>
       <c r="H19" t="n">
-        <v>2.743276932978595</v>
+        <v>2.543182004736148</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4831511215347762</v>
+        <v>0.2223596656965294</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3518585819051792</v>
+        <v>-0.174982546432523</v>
       </c>
     </row>
     <row r="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2870627723671745</v>
+        <v>0.539409788422221</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5278725279109686</v>
+        <v>0.7167027625702876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7904551024420213</v>
+        <v>1.454389114962226</v>
       </c>
       <c r="H20" t="n">
-        <v>1.216927706860562</v>
+        <v>1.400214431879948</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7129372276328259</v>
+        <v>0.4605902115777798</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4446138747289224</v>
+        <v>0.2459414930149121</v>
       </c>
     </row>
     <row r="21">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3715268608271371</v>
+        <v>0.6386458430832209</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8384729388568465</v>
+        <v>0.8678186192244374</v>
       </c>
       <c r="G21" t="n">
-        <v>7.506499878436085</v>
+        <v>8.15044775332529</v>
       </c>
       <c r="H21" t="n">
-        <v>1.817443599468826</v>
+        <v>1.774051246275421</v>
       </c>
       <c r="I21" t="n">
-        <v>0.628473139172863</v>
+        <v>0.3613541569167791</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09198824202706697</v>
+        <v>0.074825614537629</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.533582500987958</v>
+        <v>0.4850391107912783</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9359330684670411</v>
+        <v>0.9212865769302303</v>
       </c>
       <c r="G22" t="n">
-        <v>1.802845074201184</v>
+        <v>1.22164983848285</v>
       </c>
       <c r="H22" t="n">
-        <v>1.859639323692369</v>
+        <v>1.697596849531237</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4664174990120418</v>
+        <v>0.5149608892087214</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2678519457778799</v>
+        <v>0.2793093893079183</v>
       </c>
     </row>
     <row r="23">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7159532737230995</v>
+        <v>0.6750450946301817</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8530349076376356</v>
+        <v>0.8793480179147611</v>
       </c>
       <c r="G23" t="n">
-        <v>1.185354526570603</v>
+        <v>0.9864419366090884</v>
       </c>
       <c r="H23" t="n">
-        <v>4.395667340597214</v>
+        <v>5.49522303357848</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2840467262769004</v>
+        <v>0.3249549053698182</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.04025500379436675</v>
+        <v>-0.07234319196356709</v>
       </c>
     </row>
     <row r="24">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3729057479003647</v>
+        <v>0.3752321433948559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4781536163137339</v>
+        <v>0.4529373135341216</v>
       </c>
       <c r="G24" t="n">
-        <v>1.203550142534304</v>
+        <v>0.9793619268296773</v>
       </c>
       <c r="H24" t="n">
-        <v>1.309627836650805</v>
+        <v>1.144733960761246</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6270942520996354</v>
+        <v>0.6247678566051442</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4394397826016132</v>
+        <v>0.4690019477423832</v>
       </c>
     </row>
     <row r="25">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.540813840870474</v>
+        <v>0.5117721162721051</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7557071974728036</v>
+        <v>0.7511906361263708</v>
       </c>
       <c r="G25" t="n">
-        <v>1.397249914435363</v>
+        <v>1.062484567307205</v>
       </c>
       <c r="H25" t="n">
-        <v>2.521644833646796</v>
+        <v>2.779184614623655</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4591861591295257</v>
+        <v>0.4882278837278947</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2223455748617085</v>
+        <v>0.2253227150289115</v>
       </c>
     </row>
     <row r="26">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.4941260721770028</v>
+        <v>0.6203407750981008</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6097597582872089</v>
+        <v>0.6504995866600793</v>
       </c>
       <c r="G26" t="n">
-        <v>1.576697773812661</v>
+        <v>1.645995906696397</v>
       </c>
       <c r="H26" t="n">
-        <v>1.58232944602917</v>
+        <v>1.488931777364166</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5058739278229972</v>
+        <v>0.3796592249018992</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3011450972964769</v>
+        <v>0.2544525623977238</v>
       </c>
     </row>
     <row r="27">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6591352110160518</v>
+        <v>0.7861681090820893</v>
       </c>
       <c r="F27" t="n">
-        <v>1.00367783680621</v>
+        <v>0.9108168482683335</v>
       </c>
       <c r="G27" t="n">
-        <v>1.630032563919712</v>
+        <v>1.52042073917459</v>
       </c>
       <c r="H27" t="n">
-        <v>1.669203807617859</v>
+        <v>1.378965893756116</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3408647889839486</v>
+        <v>0.213831890917911</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1219773542105069</v>
+        <v>-0.01817121003915223</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3697378730446477</v>
+        <v>0.5248846947782901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6820056580924756</v>
+        <v>0.7488956348206998</v>
       </c>
       <c r="G28" t="n">
-        <v>1.414785930673235</v>
+        <v>1.557510435616168</v>
       </c>
       <c r="H28" t="n">
-        <v>1.366462024614081</v>
+        <v>1.182862791196033</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6302621269553521</v>
+        <v>0.4751153052217096</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3821658904237076</v>
+        <v>0.3215697520763368</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5076663854125674</v>
+        <v>0.6437978596528268</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7651477510619648</v>
+        <v>0.7700706899163707</v>
       </c>
       <c r="G29" t="n">
-        <v>1.54050542280187</v>
+        <v>1.574642360495718</v>
       </c>
       <c r="H29" t="n">
-        <v>1.53933175942037</v>
+        <v>1.350253487438772</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4923336145874326</v>
+        <v>0.3562021403471731</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1871112111698923</v>
+        <v>0.1859503681449693</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.4467253411077592</v>
+        <v>0.3380874683691212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9076699721219745</v>
+        <v>1.023357499702998</v>
       </c>
       <c r="G30" t="n">
-        <v>1.141179792347336</v>
+        <v>0.7887729446386853</v>
       </c>
       <c r="H30" t="n">
-        <v>2.236493278300756</v>
+        <v>2.474794298355294</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5532746588922406</v>
+        <v>0.6619125316308785</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1933879980168809</v>
+        <v>0.09058086426489342</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.6707755403914489</v>
+        <v>0.5569393540637456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9976228068660904</v>
+        <v>1.176966797562739</v>
       </c>
       <c r="G31" t="n">
-        <v>1.439491690928826</v>
+        <v>0.9194387038593671</v>
       </c>
       <c r="H31" t="n">
-        <v>4.118798124454337</v>
+        <v>5.831535015548104</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3292244596085507</v>
+        <v>0.443060645936254</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.08255899590690596</v>
+        <v>-0.2771720792829779</v>
       </c>
     </row>
     <row r="32">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3508717895082868</v>
+        <v>0.2725275244329117</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4185429721269516</v>
+        <v>0.415901392089892</v>
       </c>
       <c r="G32" t="n">
-        <v>1.119290345880729</v>
+        <v>0.8567078912545316</v>
       </c>
       <c r="H32" t="n">
-        <v>1.146064437179005</v>
+        <v>1.108240098592996</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6491282104917131</v>
+        <v>0.7274724755670882</v>
       </c>
       <c r="J32" t="n">
-        <v>0.430045322677699</v>
+        <v>0.4336425181818842</v>
       </c>
     </row>
     <row r="33">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.4894575570024983</v>
+        <v>0.3891847822885928</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7746119170383386</v>
+        <v>0.8720752297852096</v>
       </c>
       <c r="G33" t="n">
-        <v>1.233320609718964</v>
+        <v>0.8549731799175279</v>
       </c>
       <c r="H33" t="n">
-        <v>2.500451946644699</v>
+        <v>3.138189804165465</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5105424429975016</v>
+        <v>0.6108152177114072</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1802914415958917</v>
+        <v>0.08235043438793348</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5250313970327305</v>
+        <v>0.5213725532167177</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7954524157853267</v>
+        <v>0.7686288285965038</v>
       </c>
       <c r="G34" t="n">
-        <v>1.173265714409628</v>
+        <v>1.257169481333183</v>
       </c>
       <c r="H34" t="n">
-        <v>4.292589154961468</v>
+        <v>4.133037402669721</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4749686029672694</v>
+        <v>0.4786274467832822</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2966700901895729</v>
+        <v>0.3203871985720789</v>
       </c>
     </row>
     <row r="35">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.7196207067638625</v>
+        <v>0.7440301360951604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9625669431063171</v>
+        <v>0.9505275502729902</v>
       </c>
       <c r="G35" t="n">
-        <v>3.059471341094498</v>
+        <v>3.415233966088811</v>
       </c>
       <c r="H35" t="n">
-        <v>1.240837362412277</v>
+        <v>1.206142509739436</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2803792932361371</v>
+        <v>0.255969863904839</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03432635061178579</v>
+        <v>0.04640460085405806</v>
       </c>
     </row>
     <row r="36">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3737961385599542</v>
+        <v>0.3869924315526949</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4935609470634832</v>
+        <v>0.536752288342474</v>
       </c>
       <c r="G36" t="n">
-        <v>1.138731347466523</v>
+        <v>1.277122563347645</v>
       </c>
       <c r="H36" t="n">
-        <v>1.173305670433377</v>
+        <v>1.248216621674676</v>
       </c>
       <c r="I36" t="n">
-        <v>0.626203861440046</v>
+        <v>0.6130075684473054</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4154702261410841</v>
+        <v>0.3643182354889054</v>
       </c>
     </row>
     <row r="37">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5394827474521825</v>
+        <v>0.5507983736215243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7505267686517089</v>
+        <v>0.7519695557373227</v>
       </c>
       <c r="G37" t="n">
-        <v>1.790489467656884</v>
+        <v>1.983175336923212</v>
       </c>
       <c r="H37" t="n">
-        <v>2.235577395935707</v>
+        <v>2.195798844694611</v>
       </c>
       <c r="I37" t="n">
-        <v>0.460517252547817</v>
+        <v>0.4492016263784753</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2488222223141476</v>
+        <v>0.2437033449716806</v>
       </c>
     </row>
     <row r="38">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3883437343860162</v>
+        <v>0.3383690058543833</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9864887436702192</v>
+        <v>0.9405805689184304</v>
       </c>
       <c r="G38" t="n">
-        <v>37.47774112597252</v>
+        <v>34.89622815133824</v>
       </c>
       <c r="H38" t="n">
-        <v>1.534582414313799</v>
+        <v>1.443512228686948</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6116562656139835</v>
+        <v>0.6616309941456164</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1540984478703989</v>
+        <v>0.1934641238876381</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6135919966106261</v>
+        <v>0.5431660408304403</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9755182227476958</v>
+        <v>0.9603156340412428</v>
       </c>
       <c r="G39" t="n">
-        <v>1.461248561739162</v>
+        <v>1.261727333547731</v>
       </c>
       <c r="H39" t="n">
-        <v>3.668643033374787</v>
+        <v>3.200322409843589</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3864080033893738</v>
+        <v>0.4568339591695596</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2741585695978834</v>
+        <v>-0.2543019352176059</v>
       </c>
     </row>
     <row r="40">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3222410511239707</v>
+        <v>0.2777468519667415</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5104093395779052</v>
+        <v>0.4962138835269396</v>
       </c>
       <c r="G40" t="n">
-        <v>1.148917060837458</v>
+        <v>1.059092899247908</v>
       </c>
       <c r="H40" t="n">
-        <v>1.139326352547709</v>
+        <v>1.187640827805356</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6777589488760298</v>
+        <v>0.722253148033259</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4629872735901244</v>
+        <v>0.4779226205076881</v>
       </c>
     </row>
     <row r="41">
@@ -1898,31 +1898,2911 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3864272995505217</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7990366954955376</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.40568279471129</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.943825155445297</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6135727004494783</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1390282697259066</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9744228110339778</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.399834673892683</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.237742751993276</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8308052069932321</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.289580505359326</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.01314643283068628</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6406898064637624</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.159358465445995</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2488915592335313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8153059414969909</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.282924548232668</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1578292927987067</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6065910735179418</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.449144300178357</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3047767749466133</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.017443153103964</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.626054310314098</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.1373651336286226</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8652572842842441</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.227667716554675</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.2161568493649205</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8297638369687169</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.434288775682376</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1278561635609701</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9621589494515923</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.225609382003032</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1449657030861531</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9493355341490859</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.828244039576666</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.03016061336409392</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6039575805029515</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.04558766657768</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1775553029534405</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8384840213678763</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.366480362719126</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.09745346422516694</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8183942175238045</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.393990216894843</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2763852120153302</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9689890921754767</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.196019195383833</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02788347391323964</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6519369966026521</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.108405888613391</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2279036916075251</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8131067687673111</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.566138433630689</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1773907925120314</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9976730589827989</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.460428874194457</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1445080397252243</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8840562463022617</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.544030432940888</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.1546968738931478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7462012708371636</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.239847054275594</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.2149054732537544</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8759768587074083</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.748102120470312</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.06823887969527646</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>RandomForest</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5808665882524064</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9464103570722719</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.87614917541615</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.821102209135845</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.4191334117475933</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.259655925438084</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7855678241470736</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8393835265564487</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.156591778897817</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.974736656970398</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.2144321758529263</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.02360748169267946</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4311186568723705</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.4900087842064578</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.284578332219414</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.39748425967458</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5688813431276296</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4255414552346205</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Y-All</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>0.4413922607068712</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8241387686652734</v>
-      </c>
-      <c r="G41" t="n">
-        <v>13.36263558284972</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.114183933412098</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.5586077392931289</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.1143090506208796</v>
+      <c r="E65" t="n">
+        <v>0.59918435642395</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7586008892783931</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.43910642884446</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.397774375260274</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.4008156435760498</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2205299663266745</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5275244041208141</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6313731329586451</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.603156957799956</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.687064016809166</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.4724755958791859</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2763736809348435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7045781884291055</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9880862674309788</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.788665582419697</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.627331074189681</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2954218115708948</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.1045480685233018</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3823877864515307</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6213081855918777</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.640494256985438</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.355231366206308</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6176122135484692</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4371521921221805</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.53816345966715</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7469225286605007</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.677438932401698</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.556542152401718</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.4618365403328501</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2029926015112404</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.4305571918786019</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9550722742297656</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.102996146975046</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.363604086432538</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.5694428081213978</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1512633635394545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6564867484672272</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.01143972701325</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.455409323615753</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.263580363051608</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.3435132515327726</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.09755226901382552</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3473969613958949</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.45848813492456</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.07822259992511</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.065901726378792</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.652603038604105</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.3756496360001742</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4781469672472414</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8083333787225254</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.212209356838636</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.564362058620979</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.5218530327527585</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.143120243508601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5148816322608663</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.7876524350814221</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.183838508362552</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.433941177254395</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.4851183677391336</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3035667437368301</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.7088578374642067</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9871044950519224</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.993879520186156</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.22206128062001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.2911421625357927</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.009709603169890335</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3666235809687153</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4959286264177695</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.126364614005974</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.155899573947427</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6333764190312851</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4126661568852696</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.5301210168979296</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7568951855170378</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.768027547518227</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.270634010607278</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.46987898310207</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.24198083459733</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.408245732454266</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9762621584896461</v>
+      </c>
+      <c r="G78" t="n">
+        <v>38.424188808743</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.414414443299226</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.5917542675457337</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.162867614607211</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.625214225907447</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9867489768829724</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.351373963078156</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.757873425110956</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.3747857740925529</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.2888274515222045</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3620080710429817</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5138557472962082</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.137814337653297</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.187712406575659</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6379919289570188</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4593612333482736</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.4651560098015648</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8256222942229421</v>
+      </c>
+      <c r="G81" t="n">
+        <v>13.63779236982481</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.120000091661946</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5348439901984352</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1111337988110932</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6700772812134675</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9603926298672049</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.806026387122603</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.84724446380315</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.3299227187865322</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2487180772464603</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8341049070871063</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9002449584650166</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.351818624352592</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.11627782913254</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1658950929128936</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.09782649490552697</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5974175017831118</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5883531104697098</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.377623378827315</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.286997504917305</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.4025824982168884</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.310248137294189</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7005332300278955</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8163302329339772</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.511822796767504</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.416839932617664</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.2994667699721044</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1537132398783737</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6238437541899957</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7311683116273249</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.418480513715378</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.78263376759231</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.3761562458100043</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1619969138049751</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8055308544836107</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9864271032248836</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.537339168216375</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.867867181043966</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1944691455163896</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.1026933452267518</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5397944080903512</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.8265119448557129</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.781445065135887</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.548312795789934</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.4602055919096486</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.2512565468557175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6563896722546525</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.848035786569307</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.579088249022547</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.732937914808737</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.3436103277453474</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.10352003847798</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4395565235324364</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9761938881652454</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.085071448297428</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.170851603119158</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.5604434764675633</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1324933834532095</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7080356794945428</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.044477475811309</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.708138476097519</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.752674249783284</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.2919643205054568</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.1334028048272595</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.4415387380780613</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5570197859586248</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.249732402858506</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.224275825319989</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5584612619219385</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.241473269148839</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5297103137016803</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.8592303833117269</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.347647442417818</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.71593389274081</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.4702896862983197</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.08018794925826282</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6330236389420673</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8173723030482161</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.122343560868569</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.783651994527319</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3669763610579326</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.277288777083066</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8247242248547443</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9407976689866847</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.104851681796172</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.017527445051456</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.1752757751452552</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.05616588554927004</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.56064643874509</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6191486572182423</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.141982541839963</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.154219405566317</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.4393535612549105</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.266735290257313</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6727981008473005</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.792439543084381</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.456392594834901</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.985132948381697</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.3272018991526991</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.2000633176298829</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.5796740953632717</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.047690051589889</v>
+      </c>
+      <c r="G98" t="n">
+        <v>21.77851798707425</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.495041790373679</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.4203259046367277</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1016191046505267</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7836702993504889</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9612314581712879</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.738980114349623</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.593208757180232</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.2163297006495108</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.2554981252387978</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.5398057317343857</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7562325133322261</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.483950487312069</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.43840402854632</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.460194268265615</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2043513856541682</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.6343833754827154</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9217180076978009</v>
+      </c>
+      <c r="G101" t="n">
+        <v>8.333816196245323</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.84221819203341</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3656166245172845</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.01682412168863212</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5119086915250018</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9643712362437404</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.711941982364861</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.675808187496953</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.4880913084749979</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.2456057511461899</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7385980170023995</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8047312878751143</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.343281156826974</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6.316184511356403</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2614019829976004</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.01865006762703436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4488481133675009</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.522306813887643</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.222036344529384</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.234473009345627</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.5511518866324994</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.387677074579711</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5664516072983011</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7638031126688324</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.425753161240406</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.07548856939966</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.4335483927016988</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.2173109644509783</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5582612741977262</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.623505022657294</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.849008099685012</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.638198518777833</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.4417387258022738</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.28539144142884</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7268237285508465</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9611931466895737</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.78625603244434</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.572518255307156</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.2731762714491538</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.07448516252956172</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4518101507426288</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6267941345363689</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.866729292062836</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.204190297710066</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.5481898492573709</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4321824292747861</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5789650511637341</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.7371641012944122</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.833997808064062</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.471635690598352</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.4210349488362659</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.214362902724688</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.4731060818761356</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9202761681711582</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.417107376158493</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.216753079724909</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.5268939181238641</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1821853479954728</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7176974049897624</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9039049484797377</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.369859341324554</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.00032468455565</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.2823025950102372</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.01913786785263905</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4123326484854504</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4436421552556785</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.210015009601156</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.950442099363778</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5876673515145494</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.395866283071587</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5343787117837827</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7559410906355249</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.665660575694734</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.389173287881446</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.4656212882162173</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1990631663065662</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4872332818572599</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7776164885093688</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.075540507721953</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.526939193592547</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.51276671814274</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.3124404126795736</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6547034163975219</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9439976830808233</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.861862656030405</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.191664832137107</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.3452965836024777</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.05295554333825636</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.3499620026248639</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4852401704454921</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.069078667609349</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.144932919610946</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.6500379973751365</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4253246153584289</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4972995669598818</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7356181140118947</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.66882727712057</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.954512315113534</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.5027004330401179</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2635735237920862</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1768700349399581</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.004987342300894</v>
+      </c>
+      <c r="G118" t="n">
+        <v>37.80485932301945</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.606462904160373</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.8231299650600418</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1382361347985923</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2578840670248524</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.028296257426074</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9651175116928022</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.86616609177639</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7421159329751476</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.3430938120196778</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1686076273775854</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.4906047931113516</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8844739860437566</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.167428610917277</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8313923726224148</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4838240660792863</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.2011205764474653</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8412961309461068</v>
+      </c>
+      <c r="G121" t="n">
+        <v>13.21815027358533</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.213352535618013</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.7988794235525347</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.09298879628606645</v>
       </c>
     </row>
   </sheetData>
